--- a/excel_sandbox.xlsx
+++ b/excel_sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B02C5-807B-4A28-8BCD-7077C1EBB3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99C69B-E405-4549-8C75-97ED652A8DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C59E70E1-814A-46A7-BC4C-17A7545A3C59}"/>
   </bookViews>
@@ -148,10 +148,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +172,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,25 +255,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,8 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,10 +824,13 @@
   <dimension ref="A3:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A3" sqref="A3:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -849,7 +865,7 @@
       <c r="D4" s="17">
         <v>33</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="21">
         <v>2600</v>
       </c>
       <c r="F4" s="17">
@@ -869,7 +885,7 @@
       <c r="D5" s="18">
         <v>33</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="22">
         <v>2600</v>
       </c>
       <c r="F5" s="18">
@@ -889,7 +905,7 @@
       <c r="D6" s="17">
         <v>27</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="21">
         <v>2600</v>
       </c>
       <c r="F6" s="17">
@@ -909,7 +925,7 @@
       <c r="D7" s="18">
         <v>33</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="22">
         <v>2860</v>
       </c>
       <c r="F7" s="18">
@@ -929,7 +945,7 @@
       <c r="D8" s="17">
         <v>33</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="21">
         <v>2600</v>
       </c>
       <c r="F8" s="17">
@@ -949,7 +965,7 @@
       <c r="D9" s="18">
         <v>27</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="22">
         <v>2340</v>
       </c>
       <c r="F9" s="18">
@@ -969,7 +985,7 @@
       <c r="D10" s="17">
         <v>30</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="21">
         <v>2340</v>
       </c>
       <c r="F10" s="17">
@@ -989,7 +1005,7 @@
       <c r="D11" s="18">
         <v>30</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="22">
         <v>2340</v>
       </c>
       <c r="F11" s="18">
@@ -1009,7 +1025,7 @@
       <c r="D12" s="17">
         <v>33</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="21">
         <v>2600</v>
       </c>
       <c r="F12" s="17">
@@ -1029,7 +1045,7 @@
       <c r="D13" s="18">
         <v>27</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="22">
         <v>2860</v>
       </c>
       <c r="F13" s="18">
@@ -1049,7 +1065,7 @@
       <c r="D14" s="17">
         <v>27</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="21">
         <v>2600</v>
       </c>
       <c r="F14" s="17">
@@ -1069,7 +1085,7 @@
       <c r="D15" s="18">
         <v>27</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="22">
         <v>2860</v>
       </c>
       <c r="F15" s="18">
@@ -1089,7 +1105,7 @@
       <c r="D16" s="17">
         <v>33</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="21">
         <v>2860</v>
       </c>
       <c r="F16" s="17">
@@ -1109,7 +1125,7 @@
       <c r="D17" s="18">
         <v>33</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="22">
         <v>2860</v>
       </c>
       <c r="F17" s="18">
@@ -1129,7 +1145,7 @@
       <c r="D18" s="17">
         <v>33</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="21">
         <v>2340</v>
       </c>
       <c r="F18" s="17">
@@ -1149,7 +1165,7 @@
       <c r="D19" s="18">
         <v>33</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="22">
         <v>2600</v>
       </c>
       <c r="F19" s="18">
@@ -1169,7 +1185,7 @@
       <c r="D20" s="17">
         <v>30</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="21">
         <v>2340</v>
       </c>
       <c r="F20" s="17">
@@ -1189,7 +1205,7 @@
       <c r="D21" s="18">
         <v>33</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="22">
         <v>2600</v>
       </c>
       <c r="F21" s="18">
@@ -1209,7 +1225,7 @@
       <c r="D22" s="17">
         <v>33</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="21">
         <v>2340</v>
       </c>
       <c r="F22" s="17">
@@ -1229,7 +1245,7 @@
       <c r="D23" s="18">
         <v>27</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="22">
         <v>2600</v>
       </c>
       <c r="F23" s="18">
